--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/우주하마 6,7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/우주하마 6,7월 영상 카테고리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,23 +94,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주하마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0P38AYaAwzQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n7jGVy5pz34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=22aV0vxFeSc</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y9FU4ZgQu5c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hylbHcLQ7ws</t>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6jO1ctRz19Q</t>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GSJh7Bk2nMc</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZccnfHTpNcI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JoHKni50WHk</t>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mb4jBjTlFzo</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7vwbwE58bY4</t>
+  </si>
+  <si>
+    <t>E(B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O-NtKCXqc7o</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ejZBePxZN8U</t>
+  </si>
+  <si>
+    <t>6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-3</t>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,185 +310,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무자비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-EipYwn7Hw4</t>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BxVOnUlPz_g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vTewH7B4jpE</t>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E(B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0ztIqtwKYLY</t>
-  </si>
-  <si>
-    <t>7-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PZPKg2l-fqk</t>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fIOe0R49efg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qSNoREZ7fmk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k7b80Aledzw</t>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=auzfpCN89dc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=D2hmORJUBXw</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.66%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33.33%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94,691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211,308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69,972</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,877</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223,511</t>
+    <t>33.33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173,582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152,134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912,804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137,951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>827,706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153,059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918,354</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +718,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,7 +731,7 @@
     <col min="16" max="20" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,7 +750,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -709,166 +763,194 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>200712</v>
+        <v>200710</v>
       </c>
       <c r="C4" s="1">
-        <v>200709</v>
+        <v>200708</v>
       </c>
       <c r="D4" s="1">
-        <v>200708</v>
+        <v>200707</v>
       </c>
       <c r="E4" s="1">
-        <v>200707</v>
+        <v>200706</v>
       </c>
       <c r="F4" s="1">
-        <v>200702</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>200705</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200703</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200701</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>43670</v>
+        <v>139973</v>
       </c>
       <c r="C6" s="2">
-        <v>58848</v>
+        <v>173582</v>
       </c>
       <c r="D6" s="2">
-        <v>22662</v>
+        <v>131905</v>
       </c>
       <c r="E6" s="2">
-        <v>32827</v>
+        <v>160570</v>
       </c>
       <c r="F6" s="2">
-        <v>52032</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>118852</v>
+      </c>
+      <c r="G6" s="2">
+        <v>147852</v>
+      </c>
+      <c r="H6" s="2">
+        <v>142656</v>
+      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="O7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -879,184 +961,202 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>200630</v>
+        <v>200629</v>
       </c>
       <c r="C10" s="1">
+        <v>200628</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200627</v>
+      </c>
+      <c r="E10" s="1">
         <v>200626</v>
       </c>
-      <c r="D10" s="1">
-        <v>200619</v>
-      </c>
-      <c r="E10" s="1">
-        <v>200616</v>
-      </c>
       <c r="F10" s="1">
-        <v>200604</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>200625</v>
+      </c>
+      <c r="G10" s="1">
+        <v>200624</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>24315</v>
+        <v>125763</v>
       </c>
       <c r="C12" s="2">
-        <v>48046</v>
+        <v>161311</v>
       </c>
       <c r="D12" s="2">
-        <v>42659</v>
+        <v>109205</v>
       </c>
       <c r="E12" s="2">
-        <v>39788</v>
+        <v>185446</v>
       </c>
       <c r="F12" s="2">
-        <v>69972</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>162241</v>
+      </c>
+      <c r="G12" s="2">
+        <v>112476</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1067,20 +1167,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1092,13 +1192,11 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1108,11 +1206,9 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1125,8 +1221,6 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1139,8 +1233,6 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1168,13 +1260,16 @@
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="E7" r:id="rId4"/>
     <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7"/>
     <hyperlink ref="D13" r:id="rId8"/>
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="F13" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>